--- a/vars_fake.xlsx
+++ b/vars_fake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfom\Desktop\insper\6 semestre\hashi\redes-trevor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C993DBD-8881-4167-AE2D-B6603541B7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC0E43F-2B51-41D9-BF5B-81D3CB0FC566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD7029A3-E9A2-4637-AC33-0F46C1F47B60}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>eua</t>
   </si>
@@ -48,13 +48,22 @@
     <t>coreia do norte</t>
   </si>
   <si>
-    <t>betwenness</t>
-  </si>
-  <si>
-    <t>closeness</t>
-  </si>
-  <si>
     <t>var</t>
+  </si>
+  <si>
+    <t>lingua</t>
+  </si>
+  <si>
+    <t>ingles</t>
+  </si>
+  <si>
+    <t>japones</t>
+  </si>
+  <si>
+    <t>portugues</t>
+  </si>
+  <si>
+    <t>coreano</t>
   </si>
 </sst>
 </file>
@@ -406,21 +415,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F204D68-1C69-4A5A-829E-E76625A454F0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -437,36 +446,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>321</v>
-      </c>
-      <c r="C2">
-        <v>43252</v>
-      </c>
-      <c r="D2">
-        <v>1234125</v>
-      </c>
-      <c r="E2">
-        <v>4123542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>4525</v>
-      </c>
-      <c r="C3">
-        <v>1243126</v>
-      </c>
-      <c r="D3">
-        <v>1245434</v>
-      </c>
-      <c r="E3">
-        <v>5341532</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
